--- a/Labs/Lab01/MoveSquare/Square Offset.xlsx
+++ b/Labs/Lab01/MoveSquare/Square Offset.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="26">
   <si>
     <t>Run</t>
   </si>
@@ -91,6 +91,9 @@
   </si>
   <si>
     <t>wheel radius</t>
+  </si>
+  <si>
+    <t>old run data</t>
   </si>
 </sst>
 </file>
@@ -168,6 +171,30 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Odometry</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> Error Plot Data</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
@@ -192,19 +219,19 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>50.5</c:v>
+                  <c:v>-14</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>53</c:v>
+                  <c:v>-13.25</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>47.5</c:v>
+                  <c:v>-8.75</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>51.5</c:v>
+                  <c:v>-11.5</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>54.5</c:v>
+                  <c:v>-14</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -216,19 +243,19 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>47</c:v>
+                  <c:v>11.5</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>43.5</c:v>
+                  <c:v>10.25</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>43</c:v>
+                  <c:v>13.5</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>42</c:v>
+                  <c:v>10.5</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>42.5</c:v>
+                  <c:v>11</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -253,19 +280,19 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>68</c:v>
+                  <c:v>-5.25</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>72.75</c:v>
+                  <c:v>-3</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>72</c:v>
+                  <c:v>-5.5</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>71</c:v>
+                  <c:v>-4</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>74</c:v>
+                  <c:v>-5.5</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -277,19 +304,19 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>-1</c:v>
+                  <c:v>11.75</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>-1.5</c:v>
+                  <c:v>11.75</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>-4</c:v>
+                  <c:v>11.25</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>-6</c:v>
+                  <c:v>11</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>-1.75</c:v>
+                  <c:v>10.75</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -304,26 +331,27 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="83815040"/>
-        <c:axId val="85528960"/>
+        <c:axId val="84798080"/>
+        <c:axId val="95883648"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="83815040"/>
+        <c:axId val="84798080"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="85528960"/>
+        <c:crossAx val="95883648"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="85528960"/>
+        <c:axId val="95883648"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -334,7 +362,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="83815040"/>
+        <c:crossAx val="84798080"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -680,8 +708,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="F36" sqref="F36"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I36" sqref="I36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -706,18 +734,19 @@
       <c r="C2" s="1" t="s">
         <v>4</v>
       </c>
+      <c r="E2" s="1" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
         <v>1</v>
       </c>
       <c r="B3" s="2">
-        <f>B5+3</f>
-        <v>50.5</v>
+        <v>-14</v>
       </c>
       <c r="C3" s="2">
-        <f>-E3</f>
-        <v>47</v>
+        <v>11.5</v>
       </c>
       <c r="E3" s="2">
         <f>E5-4</f>
@@ -733,12 +762,10 @@
         <v>2</v>
       </c>
       <c r="B4" s="2">
-        <f>B5+5.5</f>
-        <v>53</v>
+        <v>-13.25</v>
       </c>
       <c r="C4" s="2">
-        <f t="shared" ref="C4:C7" si="0">-E4</f>
-        <v>43.5</v>
+        <v>10.25</v>
       </c>
       <c r="E4" s="2">
         <f>E5-0.5</f>
@@ -754,12 +781,10 @@
         <v>3</v>
       </c>
       <c r="B5" s="2">
-        <f>30+17.5</f>
-        <v>47.5</v>
+        <v>-8.75</v>
       </c>
       <c r="C5" s="2">
-        <f t="shared" si="0"/>
-        <v>43</v>
+        <v>13.5</v>
       </c>
       <c r="E5" s="2">
         <f>-30-13</f>
@@ -775,12 +800,10 @@
         <v>4</v>
       </c>
       <c r="B6" s="2">
-        <f>B5+4</f>
-        <v>51.5</v>
+        <v>-11.5</v>
       </c>
       <c r="C6" s="2">
-        <f t="shared" si="0"/>
-        <v>42</v>
+        <v>10.5</v>
       </c>
       <c r="E6" s="2">
         <f>E5+1</f>
@@ -796,12 +819,10 @@
         <v>5</v>
       </c>
       <c r="B7" s="2">
-        <f>B5+7</f>
-        <v>54.5</v>
+        <v>-14</v>
       </c>
       <c r="C7" s="2">
-        <f t="shared" si="0"/>
-        <v>42.5</v>
+        <v>11</v>
       </c>
       <c r="D7" t="s">
         <v>9</v>
@@ -821,15 +842,15 @@
       </c>
       <c r="B8">
         <f>AVERAGE(B3:B7)</f>
-        <v>51.4</v>
+        <v>-12.3</v>
       </c>
       <c r="C8">
         <f>AVERAGE(C3:C7)</f>
-        <v>43.6</v>
+        <v>11.35</v>
       </c>
       <c r="D8">
         <f>SQRT(B8*B8+C8*C8)</f>
-        <v>67.401186933169058</v>
+        <v>16.736561773554328</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
@@ -853,12 +874,10 @@
         <v>1</v>
       </c>
       <c r="B11" s="2">
-        <f>30+30+8</f>
-        <v>68</v>
+        <v>-5.25</v>
       </c>
       <c r="C11" s="2">
-        <f>-E11</f>
-        <v>-1</v>
+        <v>11.75</v>
       </c>
       <c r="E11" s="2">
         <f>1</f>
@@ -874,12 +893,10 @@
         <v>2</v>
       </c>
       <c r="B12" s="2">
-        <f>B11+4.75</f>
-        <v>72.75</v>
+        <v>-3</v>
       </c>
       <c r="C12" s="2">
-        <f t="shared" ref="C12:C15" si="1">-E12</f>
-        <v>-1.5</v>
+        <v>11.75</v>
       </c>
       <c r="E12" s="2">
         <f>E11+0.5</f>
@@ -895,12 +912,10 @@
         <v>3</v>
       </c>
       <c r="B13" s="2">
-        <f>B11+4</f>
-        <v>72</v>
+        <v>-5.5</v>
       </c>
       <c r="C13" s="2">
-        <f t="shared" si="1"/>
-        <v>-4</v>
+        <v>11.25</v>
       </c>
       <c r="E13" s="2">
         <f>E11+3</f>
@@ -916,12 +931,10 @@
         <v>4</v>
       </c>
       <c r="B14" s="2">
-        <f>B11+3</f>
-        <v>71</v>
+        <v>-4</v>
       </c>
       <c r="C14" s="2">
-        <f t="shared" si="1"/>
-        <v>-6</v>
+        <v>11</v>
       </c>
       <c r="E14" s="2">
         <f>E11+5</f>
@@ -937,12 +950,10 @@
         <v>5</v>
       </c>
       <c r="B15" s="2">
-        <f>B11+6</f>
-        <v>74</v>
+        <v>-5.5</v>
       </c>
       <c r="C15" s="2">
-        <f t="shared" si="1"/>
-        <v>-1.75</v>
+        <v>10.75</v>
       </c>
       <c r="D15" t="s">
         <v>8</v>
@@ -962,15 +973,15 @@
       </c>
       <c r="B16">
         <f>AVERAGE(B11:B15)</f>
-        <v>71.55</v>
+        <v>-4.6500000000000004</v>
       </c>
       <c r="C16">
         <f>AVERAGE(C11:C15)</f>
-        <v>-2.85</v>
+        <v>11.3</v>
       </c>
       <c r="D16">
         <f>SQRT(B16*B16+C16*C16)</f>
-        <v>71.606738509724067</v>
+        <v>12.219349409849936</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
@@ -979,7 +990,7 @@
       </c>
       <c r="B17">
         <f>MAX(D8,D16)</f>
-        <v>71.606738509724067</v>
+        <v>16.736561773554328</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
@@ -1064,7 +1075,7 @@
       </c>
       <c r="C27">
         <f>AVERAGE((B8+B16)/(-4*C24),(C8-C16)/(-4*C24))</f>
-        <v>-0.21145762635111426</v>
+        <v>2.1095831672572795E-2</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
@@ -1073,7 +1084,7 @@
       </c>
       <c r="C28">
         <f>AVERAGE((B8-B16)/(-4*C24),(C8+C16)/(-4*C24))</f>
-        <v>-2.5714445707396425E-2</v>
+        <v>-1.8724110951987682E-2</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
@@ -1087,7 +1098,7 @@
       </c>
       <c r="C31">
         <f>(C24+C20*SIN(C28/2))/(C24-C20*SIN(C28/2))</f>
-        <v>0.99454545308921571</v>
+        <v>0.99602524437138917</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
@@ -1096,7 +1107,7 @@
       </c>
       <c r="C32">
         <f>PI()/(PI()-C27)</f>
-        <v>0.93693574247421041</v>
+        <v>1.0067604079979839</v>
       </c>
     </row>
     <row r="33" spans="2:3" x14ac:dyDescent="0.25">
@@ -1105,7 +1116,7 @@
       </c>
       <c r="C33">
         <f>2/(C31+1)</f>
-        <v>1.002734731816884</v>
+        <v>1.0019913353500007</v>
       </c>
     </row>
     <row r="34" spans="2:3" x14ac:dyDescent="0.25">
@@ -1114,7 +1125,7 @@
       </c>
       <c r="C34">
         <f>C31*C33</f>
-        <v>0.99726526818311612</v>
+        <v>0.99800866464999904</v>
       </c>
     </row>
   </sheetData>
